--- a/excel/contrcat_10403.xlsx
+++ b/excel/contrcat_10403.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'書類雛形請書 (印刷用)'!$A$1:$AK$27</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>印紙</t>
     <rPh sb="0" eb="2">
@@ -124,16 +124,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ケイタイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>作業請負</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ウケオイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -235,10 +225,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>日割稼働率</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -343,10 +329,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>月末</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>／</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -355,10 +337,6 @@
     <rPh sb="0" eb="3">
       <t>シハライビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>翌々月25日</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -936,57 +914,15 @@
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -996,15 +932,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1"/>
@@ -1013,10 +940,145 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1035,11 +1097,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1052,7 +1112,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1064,9 +1123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
@@ -1074,8 +1130,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1101,173 +1157,106 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1280,15 +1269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1315,15 +1295,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1335,6 +1306,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1723,1012 +1700,1002 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:AK24"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="21" width="2.625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="3.625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="1.5" style="5" customWidth="1"/>
-    <col min="24" max="24" width="2.625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="1.5" style="5" customWidth="1"/>
-    <col min="26" max="31" width="2.625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="1.5" style="5" customWidth="1"/>
-    <col min="33" max="33" width="2.625" style="5" customWidth="1"/>
-    <col min="34" max="34" width="1.5" style="5" customWidth="1"/>
-    <col min="35" max="57" width="2.625" style="5" customWidth="1"/>
-    <col min="58" max="58" width="2.625" style="5" hidden="1" customWidth="1"/>
-    <col min="59" max="16384" width="2.625" style="5"/>
+    <col min="1" max="21" width="2.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="1.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="1.5" style="1" customWidth="1"/>
+    <col min="26" max="31" width="2.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="2.625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="1.5" style="1" customWidth="1"/>
+    <col min="35" max="57" width="2.625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="2.625" style="1" hidden="1" customWidth="1"/>
+    <col min="59" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:58" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="BF2" s="7" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="BF2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="W3" s="12" t="s">
+      <c r="N3" s="56"/>
+      <c r="W3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="BF3" s="7" t="s">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="BF3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="18" t="s">
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
     </row>
     <row r="6" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="W6" s="20" t="s">
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="W6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="23"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="10"/>
     </row>
     <row r="7" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W7" s="24" t="s">
+      <c r="W7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="26"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="63"/>
     </row>
     <row r="8" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W8" s="27" t="s">
+      <c r="W8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="30"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="14"/>
     </row>
-    <row r="9" spans="1:58" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:58" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="37"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="67"/>
     </row>
     <row r="11" spans="1:58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="46"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="74"/>
     </row>
     <row r="12" spans="1:58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="46"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="74"/>
     </row>
     <row r="13" spans="1:58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
-      <c r="C13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="50"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="77"/>
     </row>
     <row r="14" spans="1:58" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58" t="str">
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="84" t="str">
         <f>IF(U16="","","但し、下記の期間は
 下記の金額とする。")</f>
         <v/>
       </c>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="58" t="str">
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="84" t="str">
         <f>IF(AD16="","","但し、下記の期間は
 下記の金額とする。")</f>
         <v/>
       </c>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="62"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="88"/>
     </row>
     <row r="15" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="72"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="95"/>
     </row>
     <row r="16" spans="1:58" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="I16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="J16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="79" t="str">
+      <c r="R16" s="30" t="str">
         <f>IF(M17="時給","時","月")</f>
         <v>月</v>
       </c>
-      <c r="S16" s="80"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="86"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="35"/>
     </row>
     <row r="17" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="47"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="86"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="35"/>
     </row>
     <row r="18" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="95" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="98"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="42"/>
     </row>
     <row r="19" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="98"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="42"/>
     </row>
     <row r="20" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="103" t="str">
+      <c r="B20" s="68"/>
+      <c r="C20" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="44" t="str">
         <f>IF(M20="","","／")</f>
         <v/>
       </c>
-      <c r="R20" s="103" t="str">
+      <c r="R20" s="44" t="str">
         <f>IF(M20="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="S20" s="104"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="103" t="str">
+      <c r="S20" s="45"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="44" t="str">
         <f>IF(U20="","","／")</f>
         <v/>
       </c>
-      <c r="AA20" s="103" t="str">
+      <c r="AA20" s="44" t="str">
         <f>IF(U20="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE20" s="102"/>
-      <c r="AF20" s="102"/>
-      <c r="AG20" s="102"/>
-      <c r="AH20" s="102"/>
-      <c r="AI20" s="103" t="str">
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="44" t="str">
         <f>IF(AD20="","","／")</f>
         <v/>
       </c>
-      <c r="AJ20" s="103" t="str">
+      <c r="AJ20" s="44" t="str">
         <f>IF(AD20="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="AK20" s="105"/>
+      <c r="AK20" s="46"/>
     </row>
     <row r="21" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103" t="str">
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="44" t="str">
         <f>IF(M21="","","／")</f>
         <v/>
       </c>
-      <c r="R21" s="103" t="str">
+      <c r="R21" s="44" t="str">
         <f>IF(M21="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="S21" s="104"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="103" t="str">
+      <c r="S21" s="45"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="44" t="str">
         <f>IF(U21="","","／")</f>
         <v/>
       </c>
-      <c r="AA21" s="103" t="str">
+      <c r="AA21" s="44" t="str">
         <f>IF(U21="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE21" s="102"/>
-      <c r="AF21" s="102"/>
-      <c r="AG21" s="102"/>
-      <c r="AH21" s="102"/>
-      <c r="AI21" s="103" t="str">
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="44" t="str">
         <f>IF(AD21="","","／")</f>
         <v/>
       </c>
-      <c r="AJ21" s="103" t="str">
+      <c r="AJ21" s="44" t="str">
         <f>IF(AD21="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="AK21" s="105"/>
+      <c r="AK21" s="46"/>
     </row>
     <row r="22" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="47"/>
-      <c r="C22" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M22" s="108"/>
       <c r="N22" s="108"/>
-      <c r="O22" s="109">
-        <v>30</v>
-      </c>
+      <c r="O22" s="109"/>
       <c r="P22" s="109"/>
       <c r="Q22" s="109"/>
       <c r="R22" s="109"/>
       <c r="S22" s="109"/>
-      <c r="T22" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" s="111"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
+      <c r="T22" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="49"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
       <c r="AA22" s="108"/>
       <c r="AB22" s="108"/>
       <c r="AC22" s="108"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="111"/>
-      <c r="AK22" s="86"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="35"/>
     </row>
     <row r="23" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="47"/>
-      <c r="C23" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23" s="108"/>
       <c r="N23" s="108"/>
       <c r="O23" s="108"/>
       <c r="P23" s="108"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="109" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="109"/>
       <c r="S23" s="109"/>
       <c r="T23" s="109"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
       <c r="AA23" s="108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB23" s="108"/>
       <c r="AC23" s="108"/>
-      <c r="AD23" s="91"/>
-      <c r="AE23" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="86"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="35"/>
     </row>
     <row r="24" spans="2:37" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="116"/>
-      <c r="AK24" s="117"/>
+      <c r="B24" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="121"/>
     </row>
     <row r="25" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="123"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="123"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="123"/>
-      <c r="AJ25" s="123"/>
-      <c r="AK25" s="124"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="125"/>
     </row>
     <row r="26" spans="2:37" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="126"/>
-      <c r="AF26" s="126"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="126"/>
-      <c r="AJ26" s="126"/>
-      <c r="AK26" s="127"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="127"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="127"/>
+      <c r="AH26" s="127"/>
+      <c r="AI26" s="127"/>
+      <c r="AJ26" s="127"/>
+      <c r="AK26" s="128"/>
     </row>
     <row r="27" spans="2:37" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="132"/>
-      <c r="AF27" s="132"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="132"/>
-      <c r="AJ27" s="132"/>
-      <c r="AK27" s="133"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="130"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="131"/>
     </row>
     <row r="29" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="5" t="s">
-        <v>43</v>
+      <c r="F29" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2739,11 +2706,6 @@
     <mergeCell ref="L25:AK25"/>
     <mergeCell ref="L26:AK26"/>
     <mergeCell ref="L27:AK27"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA23:AC23"/>
     <mergeCell ref="AE23:AJ23"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="L22:N22"/>
@@ -2751,6 +2713,11 @@
     <mergeCell ref="W22:Z22"/>
     <mergeCell ref="AA22:AC22"/>
     <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA23:AC23"/>
     <mergeCell ref="U20:Y20"/>
     <mergeCell ref="AD20:AH20"/>
     <mergeCell ref="G21:K21"/>
@@ -2762,6 +2729,7 @@
     <mergeCell ref="M19:R19"/>
     <mergeCell ref="U19:AA19"/>
     <mergeCell ref="AD19:AJ19"/>
+    <mergeCell ref="U18:AA18"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:F21"/>
@@ -2772,7 +2740,6 @@
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="M18:R18"/>
-    <mergeCell ref="U18:AA18"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="U16:AA16"/>
     <mergeCell ref="AD16:AJ16"/>
@@ -2805,10 +2772,10 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="B3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="W3:AC3"/>
     <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/excel/contrcat_10403.xlsx
+++ b/excel/contrcat_10403.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>印紙</t>
     <rPh sb="0" eb="2">
@@ -77,10 +77,6 @@
     <rPh sb="3" eb="5">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -924,7 +920,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1032,6 +1027,249 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1060,257 +1298,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1700,7 +1698,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="AE4" sqref="AE4:AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1720,992 +1718,1042 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51" t="s">
+      <c r="A1" s="121"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:58" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
       <c r="BF2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="55" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="W3" s="57" t="s">
+      <c r="N3" s="127"/>
+      <c r="W3" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
       <c r="BF3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W4" s="59" t="s">
+      <c r="W4" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="133"/>
     </row>
     <row r="6" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="W6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="10"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="W6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="9"/>
     </row>
     <row r="7" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W7" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="63"/>
+      <c r="W7" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="115"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="115"/>
+      <c r="AK7" s="116"/>
     </row>
     <row r="8" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W8" s="11" t="s">
+      <c r="W8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="13"/>
+    </row>
+    <row r="9" spans="1:58" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="14"/>
-    </row>
-    <row r="9" spans="1:58" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16"/>
-      <c r="C10" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="67"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="120"/>
     </row>
     <row r="11" spans="1:58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="74"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="112"/>
     </row>
     <row r="12" spans="1:58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="74"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="111"/>
+      <c r="AK12" s="112"/>
     </row>
     <row r="13" spans="1:58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="20"/>
-      <c r="C13" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="77"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="91"/>
     </row>
     <row r="14" spans="1:58" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="21"/>
-      <c r="C14" s="78" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="84" t="str">
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="98" t="str">
         <f>IF(U16="","","但し、下記の期間は
 下記の金額とする。")</f>
         <v/>
       </c>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="84" t="str">
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="98" t="str">
         <f>IF(AD16="","","但し、下記の期間は
 下記の金額とする。")</f>
         <v/>
       </c>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="88"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="101"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="101"/>
+      <c r="AJ14" s="101"/>
+      <c r="AK14" s="102"/>
     </row>
     <row r="15" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="95"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="108"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="109"/>
     </row>
     <row r="16" spans="1:58" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="I16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="30" t="str">
+      <c r="R16" s="29" t="str">
         <f>IF(M17="時給","時","月")</f>
         <v>月</v>
       </c>
-      <c r="S16" s="31"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="35"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="34"/>
     </row>
     <row r="17" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="100"/>
-      <c r="AI17" s="100"/>
-      <c r="AJ17" s="100"/>
-      <c r="AK17" s="35"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="34"/>
     </row>
     <row r="18" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="68"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="42"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="41"/>
     </row>
     <row r="19" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="42"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="41"/>
     </row>
     <row r="20" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="68"/>
-      <c r="C20" s="69" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="44" t="str">
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="43" t="str">
         <f>IF(M20="","","／")</f>
         <v/>
       </c>
-      <c r="R20" s="44" t="str">
+      <c r="R20" s="43" t="str">
         <f>IF(M20="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="44" t="str">
+      <c r="S20" s="44"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="43" t="str">
         <f>IF(U20="","","／")</f>
         <v/>
       </c>
-      <c r="AA20" s="44" t="str">
+      <c r="AA20" s="43" t="str">
         <f>IF(U20="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="44" t="str">
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="43" t="str">
         <f>IF(AD20="","","／")</f>
         <v/>
       </c>
-      <c r="AJ20" s="44" t="str">
+      <c r="AJ20" s="43" t="str">
         <f>IF(AD20="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="AK20" s="46"/>
+      <c r="AK20" s="45"/>
     </row>
     <row r="21" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="44" t="str">
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="43" t="str">
         <f>IF(M21="","","／")</f>
         <v/>
       </c>
-      <c r="R21" s="44" t="str">
+      <c r="R21" s="43" t="str">
         <f>IF(M21="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="44" t="str">
+      <c r="S21" s="44"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="43" t="str">
         <f>IF(U21="","","／")</f>
         <v/>
       </c>
-      <c r="AA21" s="44" t="str">
+      <c r="AA21" s="43" t="str">
         <f>IF(U21="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE21" s="106"/>
-      <c r="AF21" s="106"/>
-      <c r="AG21" s="106"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="44" t="str">
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="43" t="str">
         <f>IF(AD21="","","／")</f>
         <v/>
       </c>
-      <c r="AJ21" s="44" t="str">
+      <c r="AJ21" s="43" t="str">
         <f>IF(AD21="","","Ｈ")</f>
         <v/>
       </c>
-      <c r="AK21" s="46"/>
+      <c r="AK21" s="45"/>
     </row>
     <row r="22" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="20"/>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="107" t="s">
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="49"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="108"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="104"/>
-      <c r="AG22" s="104"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="35"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="34"/>
     </row>
     <row r="23" spans="2:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="20"/>
-      <c r="C23" s="71" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="107" t="s">
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="104" t="s">
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="76"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="35"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="34"/>
     </row>
     <row r="24" spans="2:37" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="120"/>
-      <c r="AK24" s="121"/>
+      <c r="B24" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="60"/>
     </row>
     <row r="25" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="113"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="125"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="64"/>
     </row>
     <row r="26" spans="2:37" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="127"/>
-      <c r="AJ26" s="127"/>
-      <c r="AK26" s="128"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="67"/>
     </row>
     <row r="27" spans="2:37" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="130"/>
-      <c r="AH27" s="130"/>
-      <c r="AI27" s="130"/>
-      <c r="AJ27" s="130"/>
-      <c r="AK27" s="131"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="70"/>
     </row>
     <row r="29" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="75">
-    <mergeCell ref="B24:K27"/>
-    <mergeCell ref="L24:AK24"/>
-    <mergeCell ref="L25:AK25"/>
-    <mergeCell ref="L26:AK26"/>
-    <mergeCell ref="L27:AK27"/>
+  <mergeCells count="74">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="W7:AK7"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="L10:AK10"/>
+    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="L11:AK11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="L12:AK12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="L13:AK13"/>
+    <mergeCell ref="C14:J15"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="T14:AB14"/>
+    <mergeCell ref="AC14:AK14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="T15:AB15"/>
+    <mergeCell ref="AC15:AK15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="AD16:AJ16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="AD18:AJ18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="AD19:AJ19"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="AD21:AH21"/>
     <mergeCell ref="AE23:AJ23"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="L22:N22"/>
@@ -2718,64 +2766,11 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="W23:Z23"/>
     <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="AD21:AH21"/>
-    <mergeCell ref="AD18:AJ18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="AD19:AJ19"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="AD16:AJ16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="L13:AK13"/>
-    <mergeCell ref="C14:J15"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="T14:AB14"/>
-    <mergeCell ref="AC14:AK14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="T15:AB15"/>
-    <mergeCell ref="AC15:AK15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="L11:AK11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="L12:AK12"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="W7:AK7"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="L10:AK10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="B24:K27"/>
+    <mergeCell ref="L24:AK24"/>
+    <mergeCell ref="L25:AK25"/>
+    <mergeCell ref="L26:AK26"/>
+    <mergeCell ref="L27:AK27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
